--- a/Car_Example_Data_Analysis.xlsx
+++ b/Car_Example_Data_Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clinic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clinic\Desktop\Data analysis projects\New folder\Cars_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{736A649D-D7B6-4452-9242-55FB6C4B2817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E21F5-1636-459F-8FD0-7D3032E7A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="210">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -704,6 +704,9 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>abdoo</t>
+  </si>
 </sst>
 </file>
 
@@ -1045,7 +1048,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1175,6 +1178,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1221,7 +1250,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="21" applyFont="1"/>
@@ -1242,6 +1271,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1288,7 +1319,73 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="49">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1684,30 +1781,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
@@ -2116,30 +2189,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10864,7 +10913,7 @@
     <dataField name="Average of Price" fld="4" subtotal="average" baseField="0" baseItem="78" numFmtId="167"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="25">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10873,7 +10922,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10882,7 +10931,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10891,7 +10940,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -11090,41 +11139,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:S156" totalsRowShown="0" headerRowDxfId="45" headerRowCellStyle="60% - Accent1">
-  <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}"/>
-  <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="44" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="43" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="39" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:T156" totalsRowShown="0" headerRowDxfId="48" headerRowCellStyle="60% - Accent1">
+  <autoFilter ref="A1:T156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}"/>
+  <tableColumns count="20">
+    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="47" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="46" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="42" dataCellStyle="Percent">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="38" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="41" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="35">
+    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="38">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="33"/>
-    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="37"/>
+    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="36"/>
+    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="30"/>
+    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{25B0D9A8-8A13-4631-AA9F-6FBCF4F04CF2}" name="abdoo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="19" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="24" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}">
     <filterColumn colId="0">
       <filters>
@@ -11141,31 +11191,31 @@
     <sortCondition ref="B1:B156"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="18" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="17" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="23" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="22" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="14">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11468,10 +11518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z156"/>
+  <dimension ref="A1:AA156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11494,16 +11544,16 @@
     <col min="16" max="16" width="7" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" customWidth="1"/>
     <col min="18" max="18" width="13.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
-    <col min="20" max="22" width="8.77734375"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.44140625" customWidth="1"/>
+    <col min="21" max="23" width="8.77734375"/>
+    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11561,8 +11611,11 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -11623,8 +11676,11 @@
       <c r="S2" s="6">
         <v>40941</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -11685,8 +11741,11 @@
       <c r="S3" s="6">
         <v>40697</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -11747,8 +11806,11 @@
       <c r="S4" s="6">
         <v>40612</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -11809,10 +11871,13 @@
       <c r="S5" s="6">
         <v>40824</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="W5" s="13"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="X5" s="13"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -11873,9 +11938,12 @@
       <c r="S6" s="6">
         <v>40764</v>
       </c>
-      <c r="W6" s="13"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -11936,9 +12004,12 @@
       <c r="S7" s="6">
         <v>40966</v>
       </c>
-      <c r="W7" s="13"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T7" s="6">
+        <v>11</v>
+      </c>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -11999,9 +12070,12 @@
       <c r="S8" s="6">
         <v>40722</v>
       </c>
-      <c r="W8" s="13"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T8" s="6">
+        <v>1</v>
+      </c>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -12062,9 +12136,12 @@
       <c r="S9" s="6">
         <v>40937</v>
       </c>
-      <c r="W9" s="13"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T9" s="6">
+        <v>1</v>
+      </c>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -12125,9 +12202,12 @@
       <c r="S10" s="6">
         <v>40637</v>
       </c>
-      <c r="W10" s="13"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T10" s="6">
+        <v>1</v>
+      </c>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -12188,9 +12268,12 @@
       <c r="S11" s="6">
         <v>40849</v>
       </c>
-      <c r="W11" s="13"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T11" s="6">
+        <v>2</v>
+      </c>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -12251,9 +12334,12 @@
       <c r="S12" s="6">
         <v>40789</v>
       </c>
-      <c r="W12" s="13"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T12" s="6">
+        <v>2</v>
+      </c>
+      <c r="X12" s="13"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -12314,9 +12400,12 @@
       <c r="S13" s="6">
         <v>40991</v>
       </c>
-      <c r="W13" s="13"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T13" s="6">
+        <v>6</v>
+      </c>
+      <c r="X13" s="13"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -12377,8 +12466,11 @@
       <c r="S14" s="6">
         <v>40747</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T14" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -12439,8 +12531,11 @@
       <c r="S15" s="6">
         <v>40962</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T15" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -12501,9 +12596,12 @@
       <c r="S16" s="6">
         <v>40662</v>
       </c>
-      <c r="V16" s="13"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T16" s="6">
+        <v>5</v>
+      </c>
+      <c r="W16" s="13"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -12564,8 +12662,11 @@
       <c r="S17" s="6">
         <v>40874</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -12626,8 +12727,11 @@
       <c r="S18" s="6">
         <v>40814</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -12688,8 +12792,11 @@
       <c r="S19" s="6">
         <v>41016</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -12750,8 +12857,11 @@
       <c r="S20" s="6">
         <v>40772</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -12812,10 +12922,13 @@
       <c r="S21" s="6">
         <v>40987</v>
       </c>
-      <c r="V21" s="1"/>
+      <c r="T21" s="6">
+        <v>2</v>
+      </c>
       <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -12876,11 +12989,12 @@
       <c r="S22" s="6">
         <v>40687</v>
       </c>
-      <c r="X22" s="14"/>
+      <c r="T22" s="6"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22" s="14"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -12941,8 +13055,9 @@
       <c r="S23" s="6">
         <v>40899</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -13003,8 +13118,9 @@
       <c r="S24" s="6">
         <v>40839</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -13065,8 +13181,9 @@
       <c r="S25" s="6">
         <v>41041</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -13127,8 +13244,9 @@
       <c r="S26" s="6">
         <v>40797</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -13189,8 +13307,9 @@
       <c r="S27" s="6">
         <v>41012</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -13251,8 +13370,9 @@
       <c r="S28" s="6">
         <v>40712</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -13313,8 +13433,9 @@
       <c r="S29" s="6">
         <v>40924</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -13375,8 +13496,9 @@
       <c r="S30" s="6">
         <v>40864</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -13437,8 +13559,9 @@
       <c r="S31" s="6">
         <v>41066</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -13499,8 +13622,9 @@
       <c r="S32" s="6">
         <v>40822</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -13561,8 +13685,9 @@
       <c r="S33" s="6">
         <v>41037</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
@@ -13623,8 +13748,9 @@
       <c r="S34" s="6">
         <v>40949</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -13685,8 +13811,9 @@
       <c r="S35" s="6">
         <v>40889</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -13747,8 +13874,9 @@
       <c r="S36" s="6">
         <v>41091</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -13809,8 +13937,9 @@
       <c r="S37" s="6">
         <v>40847</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>61</v>
       </c>
@@ -13871,8 +14000,9 @@
       <c r="S38" s="6">
         <v>41062</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
@@ -13933,8 +14063,9 @@
       <c r="S39" s="6">
         <v>40762</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>61</v>
       </c>
@@ -13995,8 +14126,9 @@
       <c r="S40" s="6">
         <v>40974</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
@@ -14057,8 +14189,9 @@
       <c r="S41" s="6">
         <v>40914</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>61</v>
       </c>
@@ -14119,8 +14252,9 @@
       <c r="S42" s="6">
         <v>41116</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
@@ -14181,8 +14315,9 @@
       <c r="S43" s="6">
         <v>40872</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>61</v>
       </c>
@@ -14243,8 +14378,9 @@
       <c r="S44" s="6">
         <v>41087</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>61</v>
       </c>
@@ -14305,8 +14441,9 @@
       <c r="S45" s="6">
         <v>40787</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>73</v>
       </c>
@@ -14367,8 +14504,9 @@
       <c r="S46" s="6">
         <v>40999</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
@@ -14429,8 +14567,9 @@
       <c r="S47" s="6">
         <v>40939</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -14491,8 +14630,9 @@
       <c r="S48" s="6">
         <v>41141</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>73</v>
       </c>
@@ -14553,8 +14693,9 @@
       <c r="S49" s="6">
         <v>40897</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>73</v>
       </c>
@@ -14615,8 +14756,9 @@
       <c r="S50" s="6">
         <v>41112</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>73</v>
       </c>
@@ -14677,8 +14819,9 @@
       <c r="S51" s="6">
         <v>40812</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>73</v>
       </c>
@@ -14739,8 +14882,9 @@
       <c r="S52" s="6">
         <v>41024</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>73</v>
       </c>
@@ -14801,8 +14945,9 @@
       <c r="S53" s="6">
         <v>40964</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>73</v>
       </c>
@@ -14863,8 +15008,9 @@
       <c r="S54" s="6">
         <v>41166</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>73</v>
       </c>
@@ -14925,8 +15071,9 @@
       <c r="S55" s="6">
         <v>40922</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>73</v>
       </c>
@@ -14987,8 +15134,9 @@
       <c r="S56" s="6">
         <v>41137</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
@@ -15049,8 +15197,9 @@
       <c r="S57" s="6">
         <v>40837</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>85</v>
       </c>
@@ -15111,8 +15260,9 @@
       <c r="S58" s="6">
         <v>41049</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>85</v>
       </c>
@@ -15173,8 +15323,9 @@
       <c r="S59" s="6">
         <v>40989</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>85</v>
       </c>
@@ -15235,8 +15386,9 @@
       <c r="S60" s="6">
         <v>41191</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -15297,8 +15449,9 @@
       <c r="S61" s="6">
         <v>40947</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T61" s="6"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>91</v>
       </c>
@@ -15359,8 +15512,9 @@
       <c r="S62" s="6">
         <v>41162</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T62" s="6"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>91</v>
       </c>
@@ -15421,8 +15575,9 @@
       <c r="S63" s="6">
         <v>40862</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T63" s="6"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>91</v>
       </c>
@@ -15483,8 +15638,9 @@
       <c r="S64" s="6">
         <v>41074</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>95</v>
       </c>
@@ -15545,8 +15701,9 @@
       <c r="S65" s="6">
         <v>41014</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>97</v>
       </c>
@@ -15607,8 +15764,9 @@
       <c r="S66" s="6">
         <v>41216</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>99</v>
       </c>
@@ -15669,8 +15827,9 @@
       <c r="S67" s="6">
         <v>40972</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>99</v>
       </c>
@@ -15731,8 +15890,9 @@
       <c r="S68" s="6">
         <v>41187</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>99</v>
       </c>
@@ -15793,8 +15953,9 @@
       <c r="S69" s="6">
         <v>40887</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
@@ -15855,8 +16016,9 @@
       <c r="S70" s="6">
         <v>41099</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>103</v>
       </c>
@@ -15917,8 +16079,9 @@
       <c r="S71" s="6">
         <v>41039</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>103</v>
       </c>
@@ -15979,8 +16142,9 @@
       <c r="S72" s="6">
         <v>41241</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T72" s="6"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>103</v>
       </c>
@@ -16041,8 +16205,9 @@
       <c r="S73" s="6">
         <v>40997</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T73" s="6"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>103</v>
       </c>
@@ -16103,8 +16268,9 @@
       <c r="S74" s="6">
         <v>41212</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
@@ -16165,8 +16331,9 @@
       <c r="S75" s="6">
         <v>40912</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>110</v>
       </c>
@@ -16227,8 +16394,9 @@
       <c r="S76" s="6">
         <v>41124</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>110</v>
       </c>
@@ -16289,8 +16457,9 @@
       <c r="S77" s="6">
         <v>41064</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T77" s="6"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>110</v>
       </c>
@@ -16351,8 +16520,9 @@
       <c r="S78" s="6">
         <v>41266</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T78" s="6"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>114</v>
       </c>
@@ -16413,8 +16583,9 @@
       <c r="S79" s="6">
         <v>41022</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T79" s="6"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>114</v>
       </c>
@@ -16475,8 +16646,9 @@
       <c r="S80" s="6">
         <v>41237</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T80" s="6"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>114</v>
       </c>
@@ -16537,8 +16709,9 @@
       <c r="S81" s="6">
         <v>40937</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>114</v>
       </c>
@@ -16599,8 +16772,9 @@
       <c r="S82" s="6">
         <v>41149</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T82" s="6"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>114</v>
       </c>
@@ -16661,8 +16835,9 @@
       <c r="S83" s="6">
         <v>41089</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T83" s="6"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -16723,8 +16898,9 @@
       <c r="S84" s="6">
         <v>40925</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T84" s="6"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>114</v>
       </c>
@@ -16785,8 +16961,9 @@
       <c r="S85" s="6">
         <v>41047</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>122</v>
       </c>
@@ -16847,8 +17024,9 @@
       <c r="S86" s="6">
         <v>41262</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T86" s="6"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>122</v>
       </c>
@@ -16909,8 +17087,9 @@
       <c r="S87" s="6">
         <v>40962</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>122</v>
       </c>
@@ -16971,8 +17150,9 @@
       <c r="S88" s="6">
         <v>41174</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>122</v>
       </c>
@@ -17033,8 +17213,9 @@
       <c r="S89" s="6">
         <v>41114</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T89" s="6"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>122</v>
       </c>
@@ -17095,8 +17276,9 @@
       <c r="S90" s="6">
         <v>39491</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T90" s="6"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>122</v>
       </c>
@@ -17157,8 +17339,9 @@
       <c r="S91" s="6">
         <v>40106</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>129</v>
       </c>
@@ -17219,8 +17402,9 @@
       <c r="S92" s="6">
         <v>40657</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>129</v>
       </c>
@@ -17281,8 +17465,9 @@
       <c r="S93" s="6">
         <v>40736</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>129</v>
       </c>
@@ -17343,8 +17528,9 @@
       <c r="S94" s="6">
         <v>40707</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>129</v>
       </c>
@@ -17405,8 +17591,9 @@
       <c r="S95" s="6">
         <v>40619</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>129</v>
       </c>
@@ -17467,8 +17654,9 @@
       <c r="S96" s="6">
         <v>40559</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T96" s="6"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>129</v>
       </c>
@@ -17529,8 +17717,9 @@
       <c r="S97" s="6">
         <v>40761</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>129</v>
       </c>
@@ -17591,8 +17780,9 @@
       <c r="S98" s="6">
         <v>40732</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>129</v>
       </c>
@@ -17653,8 +17843,9 @@
       <c r="S99" s="6">
         <v>40644</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>129</v>
       </c>
@@ -17715,8 +17906,9 @@
       <c r="S100" s="6">
         <v>40584</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>139</v>
       </c>
@@ -17777,8 +17969,9 @@
       <c r="S101" s="6">
         <v>40786</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T101" s="6"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>139</v>
       </c>
@@ -17839,8 +18032,9 @@
       <c r="S102" s="6">
         <v>40757</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>139</v>
       </c>
@@ -17901,8 +18095,9 @@
       <c r="S103" s="6">
         <v>40669</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T103" s="6"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>139</v>
       </c>
@@ -17963,8 +18158,9 @@
       <c r="S104" s="6">
         <v>40609</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T104" s="6"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>139</v>
       </c>
@@ -18025,8 +18221,9 @@
       <c r="S105" s="6">
         <v>40811</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T105" s="6"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>139</v>
       </c>
@@ -18087,8 +18284,9 @@
       <c r="S106" s="6">
         <v>40567</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T106" s="6"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>139</v>
       </c>
@@ -18149,8 +18347,9 @@
       <c r="S107" s="6">
         <v>40782</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T107" s="6"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>147</v>
       </c>
@@ -18211,8 +18410,9 @@
       <c r="S108" s="6">
         <v>40694</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T108" s="6"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>147</v>
       </c>
@@ -18273,8 +18473,9 @@
       <c r="S109" s="6">
         <v>40634</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T109" s="6"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>147</v>
       </c>
@@ -18335,8 +18536,9 @@
       <c r="S110" s="6">
         <v>40106</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T110" s="6"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>147</v>
       </c>
@@ -18397,8 +18599,9 @@
       <c r="S111" s="6">
         <v>40592</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T111" s="6"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>147</v>
       </c>
@@ -18459,8 +18662,9 @@
       <c r="S112" s="6">
         <v>40807</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T112" s="6"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>147</v>
       </c>
@@ -18521,8 +18725,9 @@
       <c r="S113" s="6">
         <v>40719</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T113" s="6"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>154</v>
       </c>
@@ -18583,8 +18788,9 @@
       <c r="S114" s="6">
         <v>40659</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T114" s="6"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>154</v>
       </c>
@@ -18645,8 +18851,9 @@
       <c r="S115" s="6">
         <v>40861</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T115" s="6"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>154</v>
       </c>
@@ -18707,8 +18914,9 @@
       <c r="S116" s="6">
         <v>40657</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T116" s="6"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>154</v>
       </c>
@@ -18769,8 +18977,9 @@
       <c r="S117" s="6">
         <v>41087</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T117" s="6"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>158</v>
       </c>
@@ -18831,8 +19040,9 @@
       <c r="S118" s="6">
         <v>40933</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T118" s="6"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>158</v>
       </c>
@@ -18893,8 +19103,9 @@
       <c r="S119" s="6">
         <v>41239</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T119" s="6"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>158</v>
       </c>
@@ -18955,8 +19166,9 @@
       <c r="S120" s="6">
         <v>41076</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T120" s="6"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>158</v>
       </c>
@@ -19017,8 +19229,9 @@
       <c r="S121" s="6">
         <v>41197</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T121" s="6"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>158</v>
       </c>
@@ -19079,8 +19292,9 @@
       <c r="S122" s="6">
         <v>40681</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T122" s="6"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>158</v>
       </c>
@@ -19141,8 +19355,9 @@
       <c r="S123" s="6">
         <v>41112</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T123" s="6"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>165</v>
       </c>
@@ -19203,8 +19418,9 @@
       <c r="S124" s="6">
         <v>40958</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T124" s="6"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>165</v>
       </c>
@@ -19265,8 +19481,9 @@
       <c r="S125" s="6">
         <v>41264</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T125" s="6"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>165</v>
       </c>
@@ -19327,8 +19544,9 @@
       <c r="S126" s="6">
         <v>40735</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T126" s="6"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>169</v>
       </c>
@@ -19389,8 +19607,9 @@
       <c r="S127" s="6">
         <v>41222</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T127" s="6"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>169</v>
       </c>
@@ -19451,8 +19670,9 @@
       <c r="S128" s="6">
         <v>40706</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T128" s="6"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>172</v>
       </c>
@@ -19513,8 +19733,9 @@
       <c r="S129" s="6">
         <v>41137</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T129" s="6"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>172</v>
       </c>
@@ -19575,8 +19796,9 @@
       <c r="S130" s="6">
         <v>40618</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T130" s="6"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>172</v>
       </c>
@@ -19637,8 +19859,9 @@
       <c r="S131" s="6">
         <v>40558</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T131" s="6"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>172</v>
       </c>
@@ -19699,8 +19922,9 @@
       <c r="S132" s="6">
         <v>40760</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T132" s="6"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>172</v>
       </c>
@@ -19761,8 +19985,9 @@
       <c r="S133" s="6">
         <v>41247</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T133" s="6"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>178</v>
       </c>
@@ -19823,8 +20048,9 @@
       <c r="S134" s="6">
         <v>40731</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T134" s="6"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>178</v>
       </c>
@@ -19885,8 +20111,9 @@
       <c r="S135" s="6">
         <v>41162</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T135" s="6"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>181</v>
       </c>
@@ -19947,8 +20174,9 @@
       <c r="S136" s="6">
         <v>40644</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T136" s="6"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>181</v>
       </c>
@@ -20009,8 +20237,9 @@
       <c r="S137" s="6">
         <v>40584</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T137" s="6"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>181</v>
       </c>
@@ -20071,8 +20300,9 @@
       <c r="S138" s="6">
         <v>40786</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T138" s="6"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>181</v>
       </c>
@@ -20133,8 +20363,9 @@
       <c r="S139" s="6">
         <v>41272</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T139" s="6"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>181</v>
       </c>
@@ -20195,8 +20426,9 @@
       <c r="S140" s="6">
         <v>40756</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T140" s="6"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>181</v>
       </c>
@@ -20257,8 +20489,9 @@
       <c r="S141" s="6">
         <v>41187</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T141" s="6"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>181</v>
       </c>
@@ -20319,8 +20552,9 @@
       <c r="S142" s="6">
         <v>40669</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T142" s="6"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>181</v>
       </c>
@@ -20381,8 +20615,9 @@
       <c r="S143" s="6">
         <v>40609</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T143" s="6"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>181</v>
       </c>
@@ -20443,8 +20678,9 @@
       <c r="S144" s="6">
         <v>40811</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T144" s="6"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>191</v>
       </c>
@@ -20505,8 +20741,9 @@
       <c r="S145" s="6">
         <v>40567</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T145" s="6"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>191</v>
       </c>
@@ -20567,8 +20804,9 @@
       <c r="S146" s="6">
         <v>40782</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T146" s="6"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>191</v>
       </c>
@@ -20629,8 +20867,9 @@
       <c r="S147" s="6">
         <v>41212</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T147" s="6"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>191</v>
       </c>
@@ -20691,8 +20930,9 @@
       <c r="S148" s="6">
         <v>40694</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T148" s="6"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>191</v>
       </c>
@@ -20753,8 +20993,9 @@
       <c r="S149" s="6">
         <v>40634</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T149" s="6"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>191</v>
       </c>
@@ -20815,8 +21056,9 @@
       <c r="S150" s="6">
         <v>40836</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T150" s="6"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>198</v>
       </c>
@@ -20877,8 +21119,9 @@
       <c r="S151" s="6">
         <v>40592</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T151" s="6"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>198</v>
       </c>
@@ -20939,8 +21182,9 @@
       <c r="S152" s="6">
         <v>40807</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T152" s="6"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>198</v>
       </c>
@@ -21001,8 +21245,9 @@
       <c r="S153" s="6">
         <v>41237</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T153" s="6"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>198</v>
       </c>
@@ -21063,8 +21308,9 @@
       <c r="S154" s="6">
         <v>40719</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T154" s="6"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>198</v>
       </c>
@@ -21125,8 +21371,9 @@
       <c r="S155" s="6">
         <v>40659</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T155" s="6"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>198</v>
       </c>
@@ -21187,16 +21434,15 @@
       <c r="S156" s="6">
         <v>40861</v>
       </c>
+      <c r="T156" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="POOR">
+      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="POOR">
-      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31153,13 +31399,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="iYrX1Gpx/u0EvBHLtjdiiv+rjydY39Hs67DtB+K5V2PyaHJzN83vywzeSt6ni8LHdAaQVUBpEadqj1AY7wzPRw==" saltValue="a0sNLmmCaAoZVmQ4K+jPcQ==" spinCount="100000" sheet="1" scenarios="1" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="POOR">
+      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="POOR">
-      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Car_Example_Data_Analysis.xlsx
+++ b/Car_Example_Data_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clinic\Desktop\Data analysis projects\New folder\Cars_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E21F5-1636-459F-8FD0-7D3032E7A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796E4FCF-EE5A-4D49-9FD6-F17150EE3638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="209">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -704,9 +704,6 @@
   <si>
     <t>Grand Total</t>
   </si>
-  <si>
-    <t>abdoo</t>
-  </si>
 </sst>
 </file>
 
@@ -1048,7 +1045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1178,32 +1175,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1250,7 +1221,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="21" applyFont="1"/>
@@ -1271,8 +1242,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1319,25 +1288,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <b/>
@@ -10913,7 +10864,7 @@
     <dataField name="Average of Price" fld="4" subtotal="average" baseField="0" baseItem="78" numFmtId="167"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="28">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10922,7 +10873,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10931,7 +10882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10940,7 +10891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -11139,42 +11090,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:T156" totalsRowShown="0" headerRowDxfId="48" headerRowCellStyle="60% - Accent1">
-  <autoFilter ref="A1:T156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}"/>
-  <tableColumns count="20">
-    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="47" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="46" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="42" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:S156" totalsRowShown="0" headerRowDxfId="47" headerRowCellStyle="60% - Accent1">
+  <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}"/>
+  <tableColumns count="19">
+    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="46" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="45" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="41" dataCellStyle="Percent">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="41" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="40" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="38">
+    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="37">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="37"/>
-    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="36"/>
-    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="31"/>
-    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="30"/>
-    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="29"/>
-    <tableColumn id="20" xr3:uid="{25B0D9A8-8A13-4631-AA9F-6FBCF4F04CF2}" name="abdoo" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="36"/>
+    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="35"/>
+    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="29"/>
+    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="24" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="23" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}">
     <filterColumn colId="0">
       <filters>
@@ -11191,31 +11141,31 @@
     <sortCondition ref="B1:B156"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="23" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="22" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="22" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="21" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="14">
+    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="13">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11518,10 +11468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA156"/>
+  <dimension ref="A1:Z156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11553,7 +11503,7 @@
     <col min="28" max="28" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11611,11 +11561,8 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -11676,11 +11623,8 @@
       <c r="S2" s="6">
         <v>40941</v>
       </c>
-      <c r="T2" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -11741,11 +11685,8 @@
       <c r="S3" s="6">
         <v>40697</v>
       </c>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -11806,11 +11747,8 @@
       <c r="S4" s="6">
         <v>40612</v>
       </c>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -11871,13 +11809,10 @@
       <c r="S5" s="6">
         <v>40824</v>
       </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="X5" s="13"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U5" s="1"/>
+      <c r="W5" s="13"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -11938,12 +11873,9 @@
       <c r="S6" s="6">
         <v>40764</v>
       </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-      <c r="X6" s="13"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W6" s="13"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -12004,12 +11936,9 @@
       <c r="S7" s="6">
         <v>40966</v>
       </c>
-      <c r="T7" s="6">
-        <v>11</v>
-      </c>
-      <c r="X7" s="13"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W7" s="13"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -12070,12 +11999,9 @@
       <c r="S8" s="6">
         <v>40722</v>
       </c>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-      <c r="X8" s="13"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W8" s="13"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -12136,12 +12062,9 @@
       <c r="S9" s="6">
         <v>40937</v>
       </c>
-      <c r="T9" s="6">
-        <v>1</v>
-      </c>
-      <c r="X9" s="13"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -12202,12 +12125,9 @@
       <c r="S10" s="6">
         <v>40637</v>
       </c>
-      <c r="T10" s="6">
-        <v>1</v>
-      </c>
-      <c r="X10" s="13"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W10" s="13"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -12268,12 +12188,9 @@
       <c r="S11" s="6">
         <v>40849</v>
       </c>
-      <c r="T11" s="6">
-        <v>2</v>
-      </c>
-      <c r="X11" s="13"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -12334,12 +12251,9 @@
       <c r="S12" s="6">
         <v>40789</v>
       </c>
-      <c r="T12" s="6">
-        <v>2</v>
-      </c>
-      <c r="X12" s="13"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W12" s="13"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -12400,12 +12314,9 @@
       <c r="S13" s="6">
         <v>40991</v>
       </c>
-      <c r="T13" s="6">
-        <v>6</v>
-      </c>
-      <c r="X13" s="13"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W13" s="13"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -12466,11 +12377,8 @@
       <c r="S14" s="6">
         <v>40747</v>
       </c>
-      <c r="T14" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -12531,11 +12439,8 @@
       <c r="S15" s="6">
         <v>40962</v>
       </c>
-      <c r="T15" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -12596,12 +12501,9 @@
       <c r="S16" s="6">
         <v>40662</v>
       </c>
-      <c r="T16" s="6">
-        <v>5</v>
-      </c>
-      <c r="W16" s="13"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -12662,11 +12564,8 @@
       <c r="S17" s="6">
         <v>40874</v>
       </c>
-      <c r="T17" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -12727,11 +12626,8 @@
       <c r="S18" s="6">
         <v>40814</v>
       </c>
-      <c r="T18" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -12792,11 +12688,8 @@
       <c r="S19" s="6">
         <v>41016</v>
       </c>
-      <c r="T19" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -12857,11 +12750,8 @@
       <c r="S20" s="6">
         <v>40772</v>
       </c>
-      <c r="T20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -12922,13 +12812,10 @@
       <c r="S21" s="6">
         <v>40987</v>
       </c>
-      <c r="T21" s="6">
-        <v>2</v>
-      </c>
+      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -12989,12 +12876,11 @@
       <c r="S22" s="6">
         <v>40687</v>
       </c>
-      <c r="T22" s="6"/>
+      <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -13055,9 +12941,8 @@
       <c r="S23" s="6">
         <v>40899</v>
       </c>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -13118,9 +13003,8 @@
       <c r="S24" s="6">
         <v>40839</v>
       </c>
-      <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -13181,9 +13065,8 @@
       <c r="S25" s="6">
         <v>41041</v>
       </c>
-      <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -13244,9 +13127,8 @@
       <c r="S26" s="6">
         <v>40797</v>
       </c>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -13307,9 +13189,8 @@
       <c r="S27" s="6">
         <v>41012</v>
       </c>
-      <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -13370,9 +13251,8 @@
       <c r="S28" s="6">
         <v>40712</v>
       </c>
-      <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -13433,9 +13313,8 @@
       <c r="S29" s="6">
         <v>40924</v>
       </c>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -13496,9 +13375,8 @@
       <c r="S30" s="6">
         <v>40864</v>
       </c>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -13559,9 +13437,8 @@
       <c r="S31" s="6">
         <v>41066</v>
       </c>
-      <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -13622,9 +13499,8 @@
       <c r="S32" s="6">
         <v>40822</v>
       </c>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -13685,9 +13561,8 @@
       <c r="S33" s="6">
         <v>41037</v>
       </c>
-      <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
@@ -13748,9 +13623,8 @@
       <c r="S34" s="6">
         <v>40949</v>
       </c>
-      <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -13811,9 +13685,8 @@
       <c r="S35" s="6">
         <v>40889</v>
       </c>
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -13874,9 +13747,8 @@
       <c r="S36" s="6">
         <v>41091</v>
       </c>
-      <c r="T36" s="6"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -13937,9 +13809,8 @@
       <c r="S37" s="6">
         <v>40847</v>
       </c>
-      <c r="T37" s="6"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>61</v>
       </c>
@@ -14000,9 +13871,8 @@
       <c r="S38" s="6">
         <v>41062</v>
       </c>
-      <c r="T38" s="6"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
@@ -14063,9 +13933,8 @@
       <c r="S39" s="6">
         <v>40762</v>
       </c>
-      <c r="T39" s="6"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>61</v>
       </c>
@@ -14126,9 +13995,8 @@
       <c r="S40" s="6">
         <v>40974</v>
       </c>
-      <c r="T40" s="6"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
@@ -14189,9 +14057,8 @@
       <c r="S41" s="6">
         <v>40914</v>
       </c>
-      <c r="T41" s="6"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>61</v>
       </c>
@@ -14252,9 +14119,8 @@
       <c r="S42" s="6">
         <v>41116</v>
       </c>
-      <c r="T42" s="6"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
@@ -14315,9 +14181,8 @@
       <c r="S43" s="6">
         <v>40872</v>
       </c>
-      <c r="T43" s="6"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>61</v>
       </c>
@@ -14378,9 +14243,8 @@
       <c r="S44" s="6">
         <v>41087</v>
       </c>
-      <c r="T44" s="6"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>61</v>
       </c>
@@ -14441,9 +14305,8 @@
       <c r="S45" s="6">
         <v>40787</v>
       </c>
-      <c r="T45" s="6"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>73</v>
       </c>
@@ -14504,9 +14367,8 @@
       <c r="S46" s="6">
         <v>40999</v>
       </c>
-      <c r="T46" s="6"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
@@ -14567,9 +14429,8 @@
       <c r="S47" s="6">
         <v>40939</v>
       </c>
-      <c r="T47" s="6"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -14630,9 +14491,8 @@
       <c r="S48" s="6">
         <v>41141</v>
       </c>
-      <c r="T48" s="6"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>73</v>
       </c>
@@ -14693,9 +14553,8 @@
       <c r="S49" s="6">
         <v>40897</v>
       </c>
-      <c r="T49" s="6"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>73</v>
       </c>
@@ -14756,9 +14615,8 @@
       <c r="S50" s="6">
         <v>41112</v>
       </c>
-      <c r="T50" s="6"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>73</v>
       </c>
@@ -14819,9 +14677,8 @@
       <c r="S51" s="6">
         <v>40812</v>
       </c>
-      <c r="T51" s="6"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>73</v>
       </c>
@@ -14882,9 +14739,8 @@
       <c r="S52" s="6">
         <v>41024</v>
       </c>
-      <c r="T52" s="6"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>73</v>
       </c>
@@ -14945,9 +14801,8 @@
       <c r="S53" s="6">
         <v>40964</v>
       </c>
-      <c r="T53" s="6"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>73</v>
       </c>
@@ -15008,9 +14863,8 @@
       <c r="S54" s="6">
         <v>41166</v>
       </c>
-      <c r="T54" s="6"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>73</v>
       </c>
@@ -15071,9 +14925,8 @@
       <c r="S55" s="6">
         <v>40922</v>
       </c>
-      <c r="T55" s="6"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>73</v>
       </c>
@@ -15134,9 +14987,8 @@
       <c r="S56" s="6">
         <v>41137</v>
       </c>
-      <c r="T56" s="6"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
@@ -15197,9 +15049,8 @@
       <c r="S57" s="6">
         <v>40837</v>
       </c>
-      <c r="T57" s="6"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>85</v>
       </c>
@@ -15260,9 +15111,8 @@
       <c r="S58" s="6">
         <v>41049</v>
       </c>
-      <c r="T58" s="6"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>85</v>
       </c>
@@ -15323,9 +15173,8 @@
       <c r="S59" s="6">
         <v>40989</v>
       </c>
-      <c r="T59" s="6"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>85</v>
       </c>
@@ -15386,9 +15235,8 @@
       <c r="S60" s="6">
         <v>41191</v>
       </c>
-      <c r="T60" s="6"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -15449,9 +15297,8 @@
       <c r="S61" s="6">
         <v>40947</v>
       </c>
-      <c r="T61" s="6"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>91</v>
       </c>
@@ -15512,9 +15359,8 @@
       <c r="S62" s="6">
         <v>41162</v>
       </c>
-      <c r="T62" s="6"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>91</v>
       </c>
@@ -15575,9 +15421,8 @@
       <c r="S63" s="6">
         <v>40862</v>
       </c>
-      <c r="T63" s="6"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>91</v>
       </c>
@@ -15638,9 +15483,8 @@
       <c r="S64" s="6">
         <v>41074</v>
       </c>
-      <c r="T64" s="6"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>95</v>
       </c>
@@ -15701,9 +15545,8 @@
       <c r="S65" s="6">
         <v>41014</v>
       </c>
-      <c r="T65" s="6"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>97</v>
       </c>
@@ -15764,9 +15607,8 @@
       <c r="S66" s="6">
         <v>41216</v>
       </c>
-      <c r="T66" s="6"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>99</v>
       </c>
@@ -15827,9 +15669,8 @@
       <c r="S67" s="6">
         <v>40972</v>
       </c>
-      <c r="T67" s="6"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>99</v>
       </c>
@@ -15890,9 +15731,8 @@
       <c r="S68" s="6">
         <v>41187</v>
       </c>
-      <c r="T68" s="6"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>99</v>
       </c>
@@ -15953,9 +15793,8 @@
       <c r="S69" s="6">
         <v>40887</v>
       </c>
-      <c r="T69" s="6"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
@@ -16016,9 +15855,8 @@
       <c r="S70" s="6">
         <v>41099</v>
       </c>
-      <c r="T70" s="6"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>103</v>
       </c>
@@ -16079,9 +15917,8 @@
       <c r="S71" s="6">
         <v>41039</v>
       </c>
-      <c r="T71" s="6"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>103</v>
       </c>
@@ -16142,9 +15979,8 @@
       <c r="S72" s="6">
         <v>41241</v>
       </c>
-      <c r="T72" s="6"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>103</v>
       </c>
@@ -16205,9 +16041,8 @@
       <c r="S73" s="6">
         <v>40997</v>
       </c>
-      <c r="T73" s="6"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>103</v>
       </c>
@@ -16268,9 +16103,8 @@
       <c r="S74" s="6">
         <v>41212</v>
       </c>
-      <c r="T74" s="6"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
@@ -16331,9 +16165,8 @@
       <c r="S75" s="6">
         <v>40912</v>
       </c>
-      <c r="T75" s="6"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>110</v>
       </c>
@@ -16394,9 +16227,8 @@
       <c r="S76" s="6">
         <v>41124</v>
       </c>
-      <c r="T76" s="6"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>110</v>
       </c>
@@ -16457,9 +16289,8 @@
       <c r="S77" s="6">
         <v>41064</v>
       </c>
-      <c r="T77" s="6"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>110</v>
       </c>
@@ -16520,9 +16351,8 @@
       <c r="S78" s="6">
         <v>41266</v>
       </c>
-      <c r="T78" s="6"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>114</v>
       </c>
@@ -16583,9 +16413,8 @@
       <c r="S79" s="6">
         <v>41022</v>
       </c>
-      <c r="T79" s="6"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>114</v>
       </c>
@@ -16646,9 +16475,8 @@
       <c r="S80" s="6">
         <v>41237</v>
       </c>
-      <c r="T80" s="6"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>114</v>
       </c>
@@ -16709,9 +16537,8 @@
       <c r="S81" s="6">
         <v>40937</v>
       </c>
-      <c r="T81" s="6"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>114</v>
       </c>
@@ -16772,9 +16599,8 @@
       <c r="S82" s="6">
         <v>41149</v>
       </c>
-      <c r="T82" s="6"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>114</v>
       </c>
@@ -16835,9 +16661,8 @@
       <c r="S83" s="6">
         <v>41089</v>
       </c>
-      <c r="T83" s="6"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -16898,9 +16723,8 @@
       <c r="S84" s="6">
         <v>40925</v>
       </c>
-      <c r="T84" s="6"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>114</v>
       </c>
@@ -16961,9 +16785,8 @@
       <c r="S85" s="6">
         <v>41047</v>
       </c>
-      <c r="T85" s="6"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>122</v>
       </c>
@@ -17024,9 +16847,8 @@
       <c r="S86" s="6">
         <v>41262</v>
       </c>
-      <c r="T86" s="6"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>122</v>
       </c>
@@ -17087,9 +16909,8 @@
       <c r="S87" s="6">
         <v>40962</v>
       </c>
-      <c r="T87" s="6"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>122</v>
       </c>
@@ -17150,9 +16971,8 @@
       <c r="S88" s="6">
         <v>41174</v>
       </c>
-      <c r="T88" s="6"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>122</v>
       </c>
@@ -17213,9 +17033,8 @@
       <c r="S89" s="6">
         <v>41114</v>
       </c>
-      <c r="T89" s="6"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>122</v>
       </c>
@@ -17276,9 +17095,8 @@
       <c r="S90" s="6">
         <v>39491</v>
       </c>
-      <c r="T90" s="6"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>122</v>
       </c>
@@ -17339,9 +17157,8 @@
       <c r="S91" s="6">
         <v>40106</v>
       </c>
-      <c r="T91" s="6"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>129</v>
       </c>
@@ -17402,9 +17219,8 @@
       <c r="S92" s="6">
         <v>40657</v>
       </c>
-      <c r="T92" s="6"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>129</v>
       </c>
@@ -17465,9 +17281,8 @@
       <c r="S93" s="6">
         <v>40736</v>
       </c>
-      <c r="T93" s="6"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>129</v>
       </c>
@@ -17528,9 +17343,8 @@
       <c r="S94" s="6">
         <v>40707</v>
       </c>
-      <c r="T94" s="6"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>129</v>
       </c>
@@ -17591,9 +17405,8 @@
       <c r="S95" s="6">
         <v>40619</v>
       </c>
-      <c r="T95" s="6"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>129</v>
       </c>
@@ -17654,9 +17467,8 @@
       <c r="S96" s="6">
         <v>40559</v>
       </c>
-      <c r="T96" s="6"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>129</v>
       </c>
@@ -17717,9 +17529,8 @@
       <c r="S97" s="6">
         <v>40761</v>
       </c>
-      <c r="T97" s="6"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>129</v>
       </c>
@@ -17780,9 +17591,8 @@
       <c r="S98" s="6">
         <v>40732</v>
       </c>
-      <c r="T98" s="6"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>129</v>
       </c>
@@ -17843,9 +17653,8 @@
       <c r="S99" s="6">
         <v>40644</v>
       </c>
-      <c r="T99" s="6"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>129</v>
       </c>
@@ -17906,9 +17715,8 @@
       <c r="S100" s="6">
         <v>40584</v>
       </c>
-      <c r="T100" s="6"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>139</v>
       </c>
@@ -17969,9 +17777,8 @@
       <c r="S101" s="6">
         <v>40786</v>
       </c>
-      <c r="T101" s="6"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>139</v>
       </c>
@@ -18032,9 +17839,8 @@
       <c r="S102" s="6">
         <v>40757</v>
       </c>
-      <c r="T102" s="6"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>139</v>
       </c>
@@ -18095,9 +17901,8 @@
       <c r="S103" s="6">
         <v>40669</v>
       </c>
-      <c r="T103" s="6"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>139</v>
       </c>
@@ -18158,9 +17963,8 @@
       <c r="S104" s="6">
         <v>40609</v>
       </c>
-      <c r="T104" s="6"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>139</v>
       </c>
@@ -18221,9 +18025,8 @@
       <c r="S105" s="6">
         <v>40811</v>
       </c>
-      <c r="T105" s="6"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>139</v>
       </c>
@@ -18284,9 +18087,8 @@
       <c r="S106" s="6">
         <v>40567</v>
       </c>
-      <c r="T106" s="6"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>139</v>
       </c>
@@ -18347,9 +18149,8 @@
       <c r="S107" s="6">
         <v>40782</v>
       </c>
-      <c r="T107" s="6"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>147</v>
       </c>
@@ -18410,9 +18211,8 @@
       <c r="S108" s="6">
         <v>40694</v>
       </c>
-      <c r="T108" s="6"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>147</v>
       </c>
@@ -18473,9 +18273,8 @@
       <c r="S109" s="6">
         <v>40634</v>
       </c>
-      <c r="T109" s="6"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>147</v>
       </c>
@@ -18536,9 +18335,8 @@
       <c r="S110" s="6">
         <v>40106</v>
       </c>
-      <c r="T110" s="6"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>147</v>
       </c>
@@ -18599,9 +18397,8 @@
       <c r="S111" s="6">
         <v>40592</v>
       </c>
-      <c r="T111" s="6"/>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>147</v>
       </c>
@@ -18662,9 +18459,8 @@
       <c r="S112" s="6">
         <v>40807</v>
       </c>
-      <c r="T112" s="6"/>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>147</v>
       </c>
@@ -18725,9 +18521,8 @@
       <c r="S113" s="6">
         <v>40719</v>
       </c>
-      <c r="T113" s="6"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>154</v>
       </c>
@@ -18788,9 +18583,8 @@
       <c r="S114" s="6">
         <v>40659</v>
       </c>
-      <c r="T114" s="6"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>154</v>
       </c>
@@ -18851,9 +18645,8 @@
       <c r="S115" s="6">
         <v>40861</v>
       </c>
-      <c r="T115" s="6"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>154</v>
       </c>
@@ -18914,9 +18707,8 @@
       <c r="S116" s="6">
         <v>40657</v>
       </c>
-      <c r="T116" s="6"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>154</v>
       </c>
@@ -18977,9 +18769,8 @@
       <c r="S117" s="6">
         <v>41087</v>
       </c>
-      <c r="T117" s="6"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>158</v>
       </c>
@@ -19040,9 +18831,8 @@
       <c r="S118" s="6">
         <v>40933</v>
       </c>
-      <c r="T118" s="6"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>158</v>
       </c>
@@ -19103,9 +18893,8 @@
       <c r="S119" s="6">
         <v>41239</v>
       </c>
-      <c r="T119" s="6"/>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>158</v>
       </c>
@@ -19166,9 +18955,8 @@
       <c r="S120" s="6">
         <v>41076</v>
       </c>
-      <c r="T120" s="6"/>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>158</v>
       </c>
@@ -19229,9 +19017,8 @@
       <c r="S121" s="6">
         <v>41197</v>
       </c>
-      <c r="T121" s="6"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>158</v>
       </c>
@@ -19292,9 +19079,8 @@
       <c r="S122" s="6">
         <v>40681</v>
       </c>
-      <c r="T122" s="6"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>158</v>
       </c>
@@ -19355,9 +19141,8 @@
       <c r="S123" s="6">
         <v>41112</v>
       </c>
-      <c r="T123" s="6"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>165</v>
       </c>
@@ -19418,9 +19203,8 @@
       <c r="S124" s="6">
         <v>40958</v>
       </c>
-      <c r="T124" s="6"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>165</v>
       </c>
@@ -19481,9 +19265,8 @@
       <c r="S125" s="6">
         <v>41264</v>
       </c>
-      <c r="T125" s="6"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>165</v>
       </c>
@@ -19544,9 +19327,8 @@
       <c r="S126" s="6">
         <v>40735</v>
       </c>
-      <c r="T126" s="6"/>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>169</v>
       </c>
@@ -19607,9 +19389,8 @@
       <c r="S127" s="6">
         <v>41222</v>
       </c>
-      <c r="T127" s="6"/>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>169</v>
       </c>
@@ -19670,9 +19451,8 @@
       <c r="S128" s="6">
         <v>40706</v>
       </c>
-      <c r="T128" s="6"/>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>172</v>
       </c>
@@ -19733,9 +19513,8 @@
       <c r="S129" s="6">
         <v>41137</v>
       </c>
-      <c r="T129" s="6"/>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>172</v>
       </c>
@@ -19796,9 +19575,8 @@
       <c r="S130" s="6">
         <v>40618</v>
       </c>
-      <c r="T130" s="6"/>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>172</v>
       </c>
@@ -19859,9 +19637,8 @@
       <c r="S131" s="6">
         <v>40558</v>
       </c>
-      <c r="T131" s="6"/>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>172</v>
       </c>
@@ -19922,9 +19699,8 @@
       <c r="S132" s="6">
         <v>40760</v>
       </c>
-      <c r="T132" s="6"/>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>172</v>
       </c>
@@ -19985,9 +19761,8 @@
       <c r="S133" s="6">
         <v>41247</v>
       </c>
-      <c r="T133" s="6"/>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>178</v>
       </c>
@@ -20048,9 +19823,8 @@
       <c r="S134" s="6">
         <v>40731</v>
       </c>
-      <c r="T134" s="6"/>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>178</v>
       </c>
@@ -20111,9 +19885,8 @@
       <c r="S135" s="6">
         <v>41162</v>
       </c>
-      <c r="T135" s="6"/>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>181</v>
       </c>
@@ -20174,9 +19947,8 @@
       <c r="S136" s="6">
         <v>40644</v>
       </c>
-      <c r="T136" s="6"/>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>181</v>
       </c>
@@ -20237,9 +20009,8 @@
       <c r="S137" s="6">
         <v>40584</v>
       </c>
-      <c r="T137" s="6"/>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>181</v>
       </c>
@@ -20300,9 +20071,8 @@
       <c r="S138" s="6">
         <v>40786</v>
       </c>
-      <c r="T138" s="6"/>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>181</v>
       </c>
@@ -20363,9 +20133,8 @@
       <c r="S139" s="6">
         <v>41272</v>
       </c>
-      <c r="T139" s="6"/>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>181</v>
       </c>
@@ -20426,9 +20195,8 @@
       <c r="S140" s="6">
         <v>40756</v>
       </c>
-      <c r="T140" s="6"/>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>181</v>
       </c>
@@ -20489,9 +20257,8 @@
       <c r="S141" s="6">
         <v>41187</v>
       </c>
-      <c r="T141" s="6"/>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>181</v>
       </c>
@@ -20552,9 +20319,8 @@
       <c r="S142" s="6">
         <v>40669</v>
       </c>
-      <c r="T142" s="6"/>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>181</v>
       </c>
@@ -20615,9 +20381,8 @@
       <c r="S143" s="6">
         <v>40609</v>
       </c>
-      <c r="T143" s="6"/>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>181</v>
       </c>
@@ -20678,9 +20443,8 @@
       <c r="S144" s="6">
         <v>40811</v>
       </c>
-      <c r="T144" s="6"/>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>191</v>
       </c>
@@ -20741,9 +20505,8 @@
       <c r="S145" s="6">
         <v>40567</v>
       </c>
-      <c r="T145" s="6"/>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>191</v>
       </c>
@@ -20804,9 +20567,8 @@
       <c r="S146" s="6">
         <v>40782</v>
       </c>
-      <c r="T146" s="6"/>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>191</v>
       </c>
@@ -20867,9 +20629,8 @@
       <c r="S147" s="6">
         <v>41212</v>
       </c>
-      <c r="T147" s="6"/>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>191</v>
       </c>
@@ -20930,9 +20691,8 @@
       <c r="S148" s="6">
         <v>40694</v>
       </c>
-      <c r="T148" s="6"/>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>191</v>
       </c>
@@ -20993,9 +20753,8 @@
       <c r="S149" s="6">
         <v>40634</v>
       </c>
-      <c r="T149" s="6"/>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>191</v>
       </c>
@@ -21056,9 +20815,8 @@
       <c r="S150" s="6">
         <v>40836</v>
       </c>
-      <c r="T150" s="6"/>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>198</v>
       </c>
@@ -21119,9 +20877,8 @@
       <c r="S151" s="6">
         <v>40592</v>
       </c>
-      <c r="T151" s="6"/>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>198</v>
       </c>
@@ -21182,9 +20939,8 @@
       <c r="S152" s="6">
         <v>40807</v>
       </c>
-      <c r="T152" s="6"/>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>198</v>
       </c>
@@ -21245,9 +21001,8 @@
       <c r="S153" s="6">
         <v>41237</v>
       </c>
-      <c r="T153" s="6"/>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>198</v>
       </c>
@@ -21308,9 +21063,8 @@
       <c r="S154" s="6">
         <v>40719</v>
       </c>
-      <c r="T154" s="6"/>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>198</v>
       </c>
@@ -21371,9 +21125,8 @@
       <c r="S155" s="6">
         <v>40659</v>
       </c>
-      <c r="T155" s="6"/>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>198</v>
       </c>
@@ -21434,14 +21187,13 @@
       <c r="S156" s="6">
         <v>40861</v>
       </c>
-      <c r="T156" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="POOR">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="POOR">
       <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31399,10 +31151,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="iYrX1Gpx/u0EvBHLtjdiiv+rjydY39Hs67DtB+K5V2PyaHJzN83vywzeSt6ni8LHdAaQVUBpEadqj1AY7wzPRw==" saltValue="a0sNLmmCaAoZVmQ4K+jPcQ==" spinCount="100000" sheet="1" scenarios="1" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="POOR">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="POOR">
       <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
